--- a/data/categorial_size_experiment/results/A_1000_cs joint archi.xlsx
+++ b/data/categorial_size_experiment/results/A_1000_cs joint archi.xlsx
@@ -1754,7 +1754,7 @@
         <v>46</v>
       </c>
       <c r="D12" t="n">
-        <v>0.86298969072165</v>
+        <v>0.862989690721649</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
@@ -2952,7 +2952,7 @@
         <v>168</v>
       </c>
       <c r="D51" t="n">
-        <v>0.61764705882353</v>
+        <v>0.617647058823529</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
@@ -3772,7 +3772,7 @@
         <v>250</v>
       </c>
       <c r="D78" t="n">
-        <v>0.87689393939394</v>
+        <v>0.876893939393939</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="s">
